--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="348">
   <si>
     <t>Entity name</t>
   </si>
@@ -1479,43 +1479,52 @@
     <t>IMP_TOT_PREL_RIPROP_Mix</t>
   </si>
   <si>
-    <t>IMP_TOT_PRELEVATO_RIPROPOSIZIONE_Auto</t>
-  </si>
-  <si>
-    <t>IMP_TOT_PRELEVATO_RIPROPOSIZIONE_Man</t>
-  </si>
-  <si>
-    <t>IMP_TOT_PRELEVATO_RIPROPOSIZIONE_Flag</t>
-  </si>
-  <si>
-    <t>IMP_TOT_PRELEVATO_RIPROPOSIZIONE_Mix</t>
-  </si>
-  <si>
-    <t>Erogato Auto</t>
-  </si>
-  <si>
-    <t>Erogato  Man</t>
-  </si>
-  <si>
-    <t>Erogato  Flag</t>
-  </si>
-  <si>
-    <t>Erogato  Mix</t>
-  </si>
-  <si>
-    <t>Erogato Mix</t>
-  </si>
-  <si>
-    <t>Versato Auto</t>
-  </si>
-  <si>
-    <t>Versato Man</t>
-  </si>
-  <si>
-    <t>Versato Flag</t>
-  </si>
-  <si>
-    <t>Versato Mix</t>
+    <t>Erogato ForeAuto</t>
+  </si>
+  <si>
+    <t>Erogato  ForeMan</t>
+  </si>
+  <si>
+    <t>Erogato  ForeFlag</t>
+  </si>
+  <si>
+    <t>Erogato  ForeMix</t>
+  </si>
+  <si>
+    <t>Versato ForeAuto</t>
+  </si>
+  <si>
+    <t>Versato ForeMan</t>
+  </si>
+  <si>
+    <t>Versato ForeFlag</t>
+  </si>
+  <si>
+    <t>Versato ForeMix</t>
+  </si>
+  <si>
+    <t>Erogato A Monte ForeAuto</t>
+  </si>
+  <si>
+    <t>Erogato A Monte ForeMan</t>
+  </si>
+  <si>
+    <t>Erogato A Monte ForeMix</t>
+  </si>
+  <si>
+    <t>Erogato A Monte ForeFlag</t>
+  </si>
+  <si>
+    <t>Erogato Riporpozione A Monte ForeAuto</t>
+  </si>
+  <si>
+    <t>Erogato Riporpozione A Monte ForeMan</t>
+  </si>
+  <si>
+    <t>Erogato Riporpozione A Monte ForeMix</t>
+  </si>
+  <si>
+    <t>Erogato Riporpozione A Monte ForeFlag</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2197,6 +2206,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3098,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4461,10 +4473,10 @@
         <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4475,10 +4487,10 @@
         <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,10 +4501,10 @@
         <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4503,10 +4515,10 @@
         <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4517,10 +4529,10 @@
         <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4531,10 +4543,10 @@
         <v>288</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D102" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4545,10 +4557,10 @@
         <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D103" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4559,10 +4571,10 @@
         <v>290</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D104" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4573,10 +4585,10 @@
         <v>283</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4587,10 +4599,10 @@
         <v>284</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D106" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,10 +4613,10 @@
         <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D107" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,11 +4626,11 @@
       <c r="B108" t="s">
         <v>286</v>
       </c>
-      <c r="C108" t="s">
-        <v>340</v>
-      </c>
-      <c r="D108" t="s">
-        <v>340</v>
+      <c r="C108" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="73" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,10 +4795,10 @@
         <v>328</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D120" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4797,10 +4809,10 @@
         <v>329</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D121" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,10 +4823,10 @@
         <v>330</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D122" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4825,10 +4837,10 @@
         <v>331</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D123" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,6 +4915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5526,7 +5539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
@@ -25,10 +25,10 @@
     <sheet name="Legend for Attributes" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Attributes!$A$1:$AE$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Attributes!$A$1:$AE$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Attributes Labels'!$A$1:$D$128</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="361">
   <si>
     <t>Entity name</t>
   </si>
@@ -1525,13 +1525,52 @@
   </si>
   <si>
     <t>Erogato Riporpozione A Monte ForeFlag</t>
+  </si>
+  <si>
+    <t>FLG_FUORILISTA</t>
+  </si>
+  <si>
+    <t>FLG_RICIRCOLO</t>
+  </si>
+  <si>
+    <t>Flag Fuorilista</t>
+  </si>
+  <si>
+    <t>Flag Ricircolo</t>
+  </si>
+  <si>
+    <t>TSLength</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>PuntoDiPrelievo.TSLength</t>
+  </si>
+  <si>
+    <t>LibDemandPlanning.TSLength(PuntoDiPrelievo);</t>
+  </si>
+  <si>
+    <t>NUM_FUORILISTA</t>
+  </si>
+  <si>
+    <t>Fuori Lista</t>
+  </si>
+  <si>
+    <t>Prodondita del dato</t>
+  </si>
+  <si>
+    <t>A_NUM_FUORILISTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1989,6 +2028,11 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2021,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2210,6 +2254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3108,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4895,7 +4941,7 @@
       <c r="C127" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="74" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4906,11 +4952,81 @@
       <c r="B128" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="74" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D129" s="66" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D130" s="71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5537,11 +5653,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE120"/>
+  <dimension ref="A1:AE124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5553,7 +5669,7 @@
     <col min="18" max="31" width="30" style="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
@@ -12389,6 +12505,252 @@
         <v>58</v>
       </c>
     </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" s="17">
+        <v>116</v>
+      </c>
+      <c r="F121" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" t="s">
+        <v>59</v>
+      </c>
+      <c r="H121" s="67"/>
+      <c r="I121" t="s">
+        <v>59</v>
+      </c>
+      <c r="J121" s="67"/>
+      <c r="K121"/>
+      <c r="L121" s="67"/>
+      <c r="M121" t="s">
+        <v>62</v>
+      </c>
+      <c r="N121" s="67"/>
+      <c r="O121" t="s">
+        <v>59</v>
+      </c>
+      <c r="P121" s="67"/>
+      <c r="Q121" s="67"/>
+      <c r="R121" t="s">
+        <v>59</v>
+      </c>
+      <c r="S121" t="s">
+        <v>59</v>
+      </c>
+      <c r="T121" s="67"/>
+      <c r="U121" t="s">
+        <v>61</v>
+      </c>
+      <c r="V121" s="67"/>
+      <c r="W121" s="67"/>
+      <c r="X121" s="67"/>
+      <c r="Y121" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z121" s="67"/>
+      <c r="AA121" s="67"/>
+      <c r="AB121"/>
+      <c r="AC121" s="67"/>
+      <c r="AD121" s="67"/>
+      <c r="AE121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="17">
+        <v>117</v>
+      </c>
+      <c r="F122" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" t="s">
+        <v>59</v>
+      </c>
+      <c r="H122" s="67"/>
+      <c r="I122" t="s">
+        <v>59</v>
+      </c>
+      <c r="J122" s="67"/>
+      <c r="K122"/>
+      <c r="L122" s="67"/>
+      <c r="M122" t="s">
+        <v>62</v>
+      </c>
+      <c r="N122" s="67"/>
+      <c r="O122" t="s">
+        <v>59</v>
+      </c>
+      <c r="P122" s="67"/>
+      <c r="Q122" s="67"/>
+      <c r="R122" t="s">
+        <v>59</v>
+      </c>
+      <c r="S122" t="s">
+        <v>59</v>
+      </c>
+      <c r="T122" s="67"/>
+      <c r="U122" t="s">
+        <v>61</v>
+      </c>
+      <c r="V122" s="67"/>
+      <c r="W122" s="67"/>
+      <c r="X122" s="67"/>
+      <c r="Y122" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z122" s="67"/>
+      <c r="AA122" s="67"/>
+      <c r="AB122"/>
+      <c r="AC122" s="67"/>
+      <c r="AD122" s="67"/>
+      <c r="AE122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="17">
+        <v>118</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" t="s">
+        <v>59</v>
+      </c>
+      <c r="H123" t="s">
+        <v>59</v>
+      </c>
+      <c r="I123" t="s">
+        <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>354</v>
+      </c>
+      <c r="K123"/>
+      <c r="L123" s="75"/>
+      <c r="M123" t="s">
+        <v>62</v>
+      </c>
+      <c r="N123" s="75"/>
+      <c r="O123" t="s">
+        <v>58</v>
+      </c>
+      <c r="P123" s="75"/>
+      <c r="Q123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R123" t="s">
+        <v>59</v>
+      </c>
+      <c r="S123" t="s">
+        <v>59</v>
+      </c>
+      <c r="T123" s="75"/>
+      <c r="U123" s="75"/>
+      <c r="V123" s="75"/>
+      <c r="W123" s="75"/>
+      <c r="X123" s="75"/>
+      <c r="Y123" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z123" s="75"/>
+      <c r="AA123" s="75"/>
+      <c r="AB123"/>
+      <c r="AC123" s="75"/>
+      <c r="AD123" s="75"/>
+      <c r="AE123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="17">
+        <v>20</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" t="s">
+        <v>59</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124"/>
+      <c r="L124" s="1"/>
+      <c r="M124" t="s">
+        <v>62</v>
+      </c>
+      <c r="N124" t="s">
+        <v>59</v>
+      </c>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" t="s">
+        <v>59</v>
+      </c>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12398,10 +12760,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -12462,6 +12824,14 @@
         <v>280</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12469,10 +12839,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -12664,6 +13034,26 @@
       </c>
       <c r="G9" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="43">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="9"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="Legend for Attributes" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Attributes!$A$1:$AE$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Attributes Labels'!$A$1:$D$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Attributes!$A$1:$AE$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Attributes Labels'!$A$1:$D$152</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="385">
   <si>
     <t>Entity name</t>
   </si>
@@ -1564,6 +1564,78 @@
   </si>
   <si>
     <t>A_NUM_FUORILISTA</t>
+  </si>
+  <si>
+    <t>PesoPunto</t>
+  </si>
+  <si>
+    <t>PuntoDiPrelievo.PesoPunto</t>
+  </si>
+  <si>
+    <t>Peso Punto</t>
+  </si>
+  <si>
+    <t>RETURN (PuntoDiPrelievo.IMP_TOT_PRELEVATO_Mix * PuntoDiPrelievo.PRC_LIVELLO_SERVIZIO);</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato1</t>
+  </si>
+  <si>
+    <t>Quantile</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato2</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato3</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato95</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato98</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato99</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 1</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 2</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 99</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 98</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 95</t>
+  </si>
+  <si>
+    <t>Quantile Prelevato 5</t>
+  </si>
+  <si>
+    <t>QuantileVersamento1</t>
+  </si>
+  <si>
+    <t>QuantileVersamento2</t>
+  </si>
+  <si>
+    <t>QuantileVersamento5</t>
+  </si>
+  <si>
+    <t>QuantileVersamento95</t>
+  </si>
+  <si>
+    <t>QuantileVersamento98</t>
+  </si>
+  <si>
+    <t>QuantileVersamento99</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato5</t>
   </si>
 </sst>
 </file>
@@ -2032,6 +2104,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3154,10 +3227,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133:D133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3181,7 +3255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -3195,7 +3269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3209,7 +3283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -3223,7 +3297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -3237,7 +3311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -3251,7 +3325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -3265,7 +3339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -3279,7 +3353,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
@@ -3293,7 +3367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -3307,7 +3381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -3321,7 +3395,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -3335,7 +3409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -3349,7 +3423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -3363,7 +3437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -3377,7 +3451,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -3391,7 +3465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -3405,7 +3479,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -3419,7 +3493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
@@ -3433,7 +3507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
@@ -3447,7 +3521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -3461,7 +3535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -3475,7 +3549,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -3489,7 +3563,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -3503,7 +3577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3517,7 +3591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -3531,7 +3605,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -3545,7 +3619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -3559,7 +3633,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -3573,7 +3647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
@@ -3587,7 +3661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -3601,7 +3675,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -3615,7 +3689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -3629,7 +3703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -3643,7 +3717,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -3657,7 +3731,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3671,7 +3745,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3685,7 +3759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -3699,7 +3773,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -3713,7 +3787,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -3727,7 +3801,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
@@ -3741,7 +3815,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -3755,7 +3829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3769,7 +3843,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -3783,7 +3857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -3797,7 +3871,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -3811,7 +3885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3825,7 +3899,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -3839,7 +3913,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -3853,7 +3927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3867,7 +3941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -3881,7 +3955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3895,7 +3969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -3909,7 +3983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
@@ -3923,7 +3997,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -3937,7 +4011,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -3951,7 +4025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>210</v>
       </c>
@@ -3965,7 +4039,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>210</v>
       </c>
@@ -3979,7 +4053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>210</v>
       </c>
@@ -3993,7 +4067,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>210</v>
       </c>
@@ -4007,7 +4081,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
@@ -4021,7 +4095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>210</v>
       </c>
@@ -4035,7 +4109,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>210</v>
       </c>
@@ -4049,7 +4123,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>210</v>
       </c>
@@ -4063,7 +4137,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -4077,7 +4151,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -4091,7 +4165,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -4105,7 +4179,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -4119,7 +4193,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -4133,7 +4207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -4147,7 +4221,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -4161,7 +4235,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="65" t="s">
         <v>98</v>
       </c>
@@ -4175,7 +4249,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="65" t="s">
         <v>98</v>
       </c>
@@ -4189,7 +4263,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="s">
         <v>98</v>
       </c>
@@ -4203,7 +4277,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
         <v>99</v>
       </c>
@@ -4217,7 +4291,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
         <v>99</v>
       </c>
@@ -4231,7 +4305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
         <v>99</v>
       </c>
@@ -4245,7 +4319,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
         <v>99</v>
       </c>
@@ -4259,7 +4333,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -4273,7 +4347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -4287,7 +4361,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -4301,7 +4375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -4315,7 +4389,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -4329,7 +4403,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -4343,7 +4417,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>272</v>
       </c>
@@ -4357,7 +4431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -4371,7 +4445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -4385,7 +4459,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>272</v>
       </c>
@@ -4399,7 +4473,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -4413,7 +4487,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -4427,7 +4501,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -4441,7 +4515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -4455,7 +4529,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>272</v>
       </c>
@@ -4469,7 +4543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>272</v>
       </c>
@@ -4483,7 +4557,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -4497,7 +4571,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -4511,7 +4585,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -4525,7 +4599,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -4539,7 +4613,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -4567,7 +4641,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -4581,7 +4655,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -4595,7 +4669,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4623,7 +4697,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>210</v>
       </c>
@@ -4637,7 +4711,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -4651,7 +4725,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
@@ -4679,7 +4753,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
@@ -4693,7 +4767,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>102</v>
       </c>
@@ -4707,7 +4781,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>102</v>
       </c>
@@ -4721,7 +4795,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>102</v>
       </c>
@@ -4735,7 +4809,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
@@ -4749,7 +4823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
@@ -4763,7 +4837,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -4777,7 +4851,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>102</v>
       </c>
@@ -4791,7 +4865,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>102</v>
       </c>
@@ -4805,7 +4879,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>102</v>
       </c>
@@ -4819,7 +4893,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>272</v>
       </c>
@@ -4833,7 +4907,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>102</v>
       </c>
@@ -4847,7 +4921,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>102</v>
       </c>
@@ -4861,7 +4935,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>102</v>
       </c>
@@ -4889,7 +4963,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>210</v>
       </c>
@@ -4903,7 +4977,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>210</v>
       </c>
@@ -4917,7 +4991,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>210</v>
       </c>
@@ -4931,7 +5005,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>210</v>
       </c>
@@ -4945,7 +5019,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -4959,7 +5033,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>102</v>
       </c>
@@ -4973,7 +5047,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>102</v>
       </c>
@@ -4987,7 +5061,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>102</v>
       </c>
@@ -5001,7 +5075,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>102</v>
       </c>
@@ -5015,7 +5089,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>210</v>
       </c>
@@ -5029,7 +5103,282 @@
         <v>358</v>
       </c>
     </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D152">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="IMP_TOT_PREL_RIPROP_Mix"/>
+        <filter val="IMP_TOT_PRELEVATO_Mix"/>
+        <filter val="IMP_TOT_VERSAMENTO_Mix"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5653,11 +6002,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE124"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:B123"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9034,7 +9384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -9097,7 +9447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -9160,7 +9510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -9223,7 +9573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -9286,7 +9636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -9349,7 +9699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -9412,7 +9762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -9475,7 +9825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>98</v>
       </c>
@@ -9525,7 +9875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>98</v>
       </c>
@@ -9575,7 +9925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="65" t="s">
         <v>98</v>
       </c>
@@ -9625,7 +9975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="65" t="s">
         <v>99</v>
       </c>
@@ -9688,7 +10038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>99</v>
       </c>
@@ -9751,7 +10101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>99</v>
       </c>
@@ -9801,7 +10151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
         <v>99</v>
       </c>
@@ -9851,7 +10201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -9901,7 +10251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>272</v>
       </c>
@@ -9953,7 +10303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>272</v>
       </c>
@@ -10005,7 +10355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -10055,7 +10405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>272</v>
       </c>
@@ -10107,7 +10457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -10159,7 +10509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>272</v>
       </c>
@@ -10209,7 +10559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>272</v>
       </c>
@@ -10261,7 +10611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -10313,7 +10663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -10363,7 +10713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -10415,7 +10765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -10467,7 +10817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -10517,7 +10867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -10569,7 +10919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>272</v>
       </c>
@@ -10621,7 +10971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -10671,7 +11021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -10723,7 +11073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>272</v>
       </c>
@@ -11211,7 +11561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>210</v>
       </c>
@@ -11266,7 +11616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
@@ -11321,7 +11671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>210</v>
       </c>
@@ -11374,7 +11724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -11910,7 +12260,7 @@
       <c r="A110" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C110" t="s">
@@ -11959,7 +12309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -12240,7 +12590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>210</v>
       </c>
@@ -12293,7 +12643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>210</v>
       </c>
@@ -12346,7 +12696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>210</v>
       </c>
@@ -12399,7 +12749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>210</v>
       </c>
@@ -12452,7 +12802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>210</v>
       </c>
@@ -12751,7 +13101,1028 @@
         <v>58</v>
       </c>
     </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="17">
+        <v>30</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J125" t="s">
+        <v>63</v>
+      </c>
+      <c r="K125" t="s">
+        <v>209</v>
+      </c>
+      <c r="L125" t="s">
+        <v>65</v>
+      </c>
+      <c r="M125" t="s">
+        <v>62</v>
+      </c>
+      <c r="N125" t="s">
+        <v>59</v>
+      </c>
+      <c r="O125" t="s">
+        <v>58</v>
+      </c>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="R125" s="67"/>
+      <c r="S125" t="s">
+        <v>59</v>
+      </c>
+      <c r="T125" s="67"/>
+      <c r="U125" s="67"/>
+      <c r="V125" s="67"/>
+      <c r="W125" s="67"/>
+      <c r="X125" s="67"/>
+      <c r="Y125" s="67"/>
+      <c r="Z125" s="67"/>
+      <c r="AA125" s="67"/>
+      <c r="AB125"/>
+      <c r="AC125" s="67"/>
+      <c r="AD125" s="67"/>
+      <c r="AE125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E126" s="17">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" t="s">
+        <v>59</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126"/>
+      <c r="L126" s="1"/>
+      <c r="M126" t="s">
+        <v>62</v>
+      </c>
+      <c r="N126" t="s">
+        <v>59</v>
+      </c>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" t="s">
+        <v>59</v>
+      </c>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E127" s="17">
+        <v>11</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" t="s">
+        <v>59</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127"/>
+      <c r="L127" s="1"/>
+      <c r="M127" t="s">
+        <v>62</v>
+      </c>
+      <c r="N127" t="s">
+        <v>59</v>
+      </c>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" t="s">
+        <v>59</v>
+      </c>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E128" s="17">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" t="s">
+        <v>59</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128"/>
+      <c r="L128" s="1"/>
+      <c r="M128" t="s">
+        <v>62</v>
+      </c>
+      <c r="N128" t="s">
+        <v>59</v>
+      </c>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" t="s">
+        <v>59</v>
+      </c>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E129" s="17">
+        <v>13</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" t="s">
+        <v>59</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129"/>
+      <c r="L129" s="1"/>
+      <c r="M129" t="s">
+        <v>62</v>
+      </c>
+      <c r="N129" t="s">
+        <v>59</v>
+      </c>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" t="s">
+        <v>59</v>
+      </c>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E130" s="17">
+        <v>14</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" t="s">
+        <v>59</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130"/>
+      <c r="L130" s="1"/>
+      <c r="M130" t="s">
+        <v>62</v>
+      </c>
+      <c r="N130" t="s">
+        <v>59</v>
+      </c>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" t="s">
+        <v>59</v>
+      </c>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E131" s="17">
+        <v>15</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" t="s">
+        <v>59</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131"/>
+      <c r="L131" s="1"/>
+      <c r="M131" t="s">
+        <v>62</v>
+      </c>
+      <c r="N131" t="s">
+        <v>59</v>
+      </c>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" t="s">
+        <v>59</v>
+      </c>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E132" s="17">
+        <v>10</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="1"/>
+      <c r="K132"/>
+      <c r="L132" s="1"/>
+      <c r="M132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N132" t="s">
+        <v>59</v>
+      </c>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" t="s">
+        <v>59</v>
+      </c>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+      <c r="AE132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E133" s="17">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="1"/>
+      <c r="K133"/>
+      <c r="L133" s="1"/>
+      <c r="M133" t="s">
+        <v>62</v>
+      </c>
+      <c r="N133" t="s">
+        <v>59</v>
+      </c>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" t="s">
+        <v>59</v>
+      </c>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E134" s="17">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" t="s">
+        <v>59</v>
+      </c>
+      <c r="J134" s="1"/>
+      <c r="K134"/>
+      <c r="L134" s="1"/>
+      <c r="M134" t="s">
+        <v>62</v>
+      </c>
+      <c r="N134" t="s">
+        <v>59</v>
+      </c>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" t="s">
+        <v>59</v>
+      </c>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E135" s="17">
+        <v>13</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" t="s">
+        <v>59</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135"/>
+      <c r="L135" s="1"/>
+      <c r="M135" t="s">
+        <v>62</v>
+      </c>
+      <c r="N135" t="s">
+        <v>59</v>
+      </c>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" t="s">
+        <v>59</v>
+      </c>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E136" s="17">
+        <v>14</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" t="s">
+        <v>59</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136"/>
+      <c r="L136" s="1"/>
+      <c r="M136" t="s">
+        <v>62</v>
+      </c>
+      <c r="N136" t="s">
+        <v>59</v>
+      </c>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" t="s">
+        <v>59</v>
+      </c>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E137" s="17">
+        <v>15</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" t="s">
+        <v>59</v>
+      </c>
+      <c r="J137" s="1"/>
+      <c r="K137"/>
+      <c r="L137" s="1"/>
+      <c r="M137" t="s">
+        <v>62</v>
+      </c>
+      <c r="N137" t="s">
+        <v>59</v>
+      </c>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" t="s">
+        <v>59</v>
+      </c>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E138" s="17">
+        <v>20</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" t="s">
+        <v>59</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138"/>
+      <c r="L138" s="1"/>
+      <c r="M138" t="s">
+        <v>62</v>
+      </c>
+      <c r="N138" t="s">
+        <v>59</v>
+      </c>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" t="s">
+        <v>59</v>
+      </c>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E139" s="17">
+        <v>21</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" t="s">
+        <v>59</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139"/>
+      <c r="L139" s="1"/>
+      <c r="M139" t="s">
+        <v>62</v>
+      </c>
+      <c r="N139" t="s">
+        <v>59</v>
+      </c>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" t="s">
+        <v>59</v>
+      </c>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E140" s="17">
+        <v>22</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" t="s">
+        <v>59</v>
+      </c>
+      <c r="J140" s="1"/>
+      <c r="K140"/>
+      <c r="L140" s="1"/>
+      <c r="M140" t="s">
+        <v>62</v>
+      </c>
+      <c r="N140" t="s">
+        <v>59</v>
+      </c>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" t="s">
+        <v>59</v>
+      </c>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E141" s="17">
+        <v>23</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" t="s">
+        <v>59</v>
+      </c>
+      <c r="J141" s="1"/>
+      <c r="K141"/>
+      <c r="L141" s="1"/>
+      <c r="M141" t="s">
+        <v>62</v>
+      </c>
+      <c r="N141" t="s">
+        <v>59</v>
+      </c>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" t="s">
+        <v>59</v>
+      </c>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142" s="17">
+        <v>24</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" t="s">
+        <v>59</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142"/>
+      <c r="L142" s="1"/>
+      <c r="M142" t="s">
+        <v>62</v>
+      </c>
+      <c r="N142" t="s">
+        <v>59</v>
+      </c>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" t="s">
+        <v>59</v>
+      </c>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
+      <c r="AE142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E143" s="17">
+        <v>25</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" t="s">
+        <v>59</v>
+      </c>
+      <c r="J143" s="1"/>
+      <c r="K143"/>
+      <c r="L143" s="1"/>
+      <c r="M143" t="s">
+        <v>62</v>
+      </c>
+      <c r="N143" t="s">
+        <v>59</v>
+      </c>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" t="s">
+        <v>59</v>
+      </c>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AE143">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PuntoDiPrelievo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12760,10 +14131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A9" sqref="A9:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -12825,11 +14196,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/05_EntityType_intesa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="863" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -3227,11 +3227,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3255,7 +3254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>210</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>210</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>210</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>210</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>210</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>210</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>210</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="65" t="s">
         <v>98</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="65" t="s">
         <v>98</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="s">
         <v>98</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
         <v>99</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
         <v>99</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
         <v>99</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
         <v>99</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>272</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>272</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>272</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>272</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>210</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>102</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>102</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>102</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>102</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>102</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>102</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>272</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>102</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>102</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>102</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>210</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>210</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>210</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>210</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>102</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>102</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>102</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>102</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>210</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>102</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>102</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>102</v>
       </c>
@@ -5145,7 +5144,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>102</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>102</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>102</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>210</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>210</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>210</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>210</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>210</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>210</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>102</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>102</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>102</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>102</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>102</v>
       </c>
@@ -5370,15 +5369,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D152">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="IMP_TOT_PREL_RIPROP_Mix"/>
-        <filter val="IMP_TOT_PRELEVATO_Mix"/>
-        <filter val="IMP_TOT_VERSAMENTO_Mix"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
